--- a/F Web2.0.xlsx
+++ b/F Web2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Expired Tumbr" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Expired Blogspot'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Expired Tumbr'!$A$1:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Expired Tumbr'!$A$1:$I$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
   <si>
     <t>thatirishnerd.tumblr.com</t>
   </si>
@@ -57,18 +57,12 @@
     <t>the-based-goddess.tumblr.com</t>
   </si>
   <si>
-    <t>surebaiino.tumblr.com</t>
-  </si>
-  <si>
     <t>mycarefulheart.tumblr.com</t>
   </si>
   <si>
     <t>metal-raybot.tumblr.com</t>
   </si>
   <si>
-    <t>riskantesverhalten.tumblr.com</t>
-  </si>
-  <si>
     <t>defiled-dolly.tumblr.com</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>zombie-likespermbomb.tumblr.com</t>
   </si>
   <si>
-    <t>whispering-no.tumblr.com</t>
-  </si>
-  <si>
     <t>in-malace-we-trust.tumblr.com</t>
   </si>
   <si>
@@ -108,15 +99,9 @@
     <t>laapaix.tumblr.com</t>
   </si>
   <si>
-    <t>safebet-bettingimnot.tumblr.com</t>
-  </si>
-  <si>
     <t>cottonflower-blog.tumblr.com</t>
   </si>
   <si>
-    <t>mellowliberalhoe.tumblr.com</t>
-  </si>
-  <si>
     <t>vayasealv.tumblr.com</t>
   </si>
   <si>
@@ -589,6 +574,9 @@
   </si>
   <si>
     <t>Fullo Craft</t>
+  </si>
+  <si>
+    <t>Total Post</t>
   </si>
 </sst>
 </file>
@@ -759,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,12 +925,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -7213,22 +7195,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6107"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7249,6 +7226,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6107" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6108">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13660,1099 +13644,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.875" style="12"/>
     <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
+      <c r="H1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="15">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33.81</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="16">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="D2" s="16">
         <v>98</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>59</v>
+      <c r="E2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>34.270000000000003</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="15">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16">
+        <v>32</v>
+      </c>
+      <c r="D3" s="16">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>70</v>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <v>29</v>
+      </c>
+      <c r="I3" s="18">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34.21</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="15">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16">
         <v>98</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
+      <c r="F4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="15">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16">
         <v>98</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <v>26</v>
+      </c>
+      <c r="I5" s="16">
         <v>46</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="15">
+        <v>17</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
+        <v>32</v>
+      </c>
+      <c r="D6" s="16">
         <v>98</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="16">
         <v>34</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="16">
         <v>98</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
         <v>22</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="A8" s="15">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>33</v>
+      </c>
+      <c r="D8" s="16">
         <v>98</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
+      <c r="E8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>17</v>
+      </c>
+      <c r="I8" s="16">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9" s="15">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="16">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16">
         <v>98</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>567</v>
+      <c r="E9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <v>16</v>
+      </c>
+      <c r="I9" s="18">
+        <v>18100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16">
+        <v>34</v>
+      </c>
+      <c r="D10" s="16">
         <v>98</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <v>15</v>
+      </c>
+      <c r="I10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="A11" s="15">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16">
         <v>98</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>129</v>
+      <c r="E11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
+        <v>11</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>33.81</v>
+      </c>
+      <c r="D12" s="16">
         <v>98</v>
       </c>
-      <c r="H12" s="4">
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
+      <c r="I12" s="16">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="15">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>34.21</v>
+      </c>
+      <c r="D13" s="16">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13">
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="I13" s="16">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" s="15">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>34</v>
+      </c>
+      <c r="D14" s="16">
+        <v>98</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16">
         <v>33</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="16">
         <v>98</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14">
+      <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4">
-        <v>98</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
+      <c r="I15" s="16">
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="A16" s="15">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16">
         <v>98</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>76</v>
+      <c r="I16" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
+        <v>33</v>
+      </c>
+      <c r="D17" s="16">
         <v>98</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>295</v>
+      <c r="I17" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16">
+        <v>33</v>
+      </c>
+      <c r="D18" s="16">
         <v>98</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18">
-        <v>26</v>
-      </c>
-      <c r="I18">
-        <v>46</v>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="16">
         <v>32</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="16">
         <v>98</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19">
+      <c r="E19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2190</v>
+      <c r="I19" s="16">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
         <v>32</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="16">
         <v>98</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+      <c r="E20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16">
         <v>32</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="16">
         <v>98</v>
       </c>
-      <c r="H21" s="4">
+      <c r="E21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
         <v>0</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
+      <c r="I21" s="16">
+        <v>2190</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="15">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16">
         <v>32</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="16">
         <v>98</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22">
+      <c r="E22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="16">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="16">
         <v>32</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="16">
         <v>98</v>
       </c>
-      <c r="H23" s="4">
+      <c r="E23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16">
         <v>0</v>
       </c>
-      <c r="I23" s="4">
-        <v>0</v>
+      <c r="I23" s="16">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="15">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16">
         <v>32</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="16">
         <v>98</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24">
+      <c r="E24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>77</v>
+      <c r="I24" s="18">
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="15">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="16">
         <v>32</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="16">
         <v>98</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
         <v>0</v>
       </c>
-      <c r="I25" s="5">
-        <v>361</v>
+      <c r="I25" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="15">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16">
         <v>32</v>
       </c>
-      <c r="C26" s="1">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="D26" s="16">
         <v>98</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26">
+      <c r="E26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>1</v>
+      <c r="I26" s="18">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="A27" s="15">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="16">
         <v>32</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="16">
         <v>98</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27">
+      <c r="E27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
         <v>0</v>
       </c>
-      <c r="I27" s="5">
-        <v>49</v>
+      <c r="I27" s="16">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="A28" s="15">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16">
         <v>32</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="16">
         <v>98</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28">
+      <c r="E28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="16">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6">
-        <v>32</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="D29" s="16">
         <v>98</v>
       </c>
-      <c r="H29" s="6">
+      <c r="E29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16">
         <v>0</v>
       </c>
-      <c r="I29" s="7">
-        <v>125</v>
+      <c r="I29" s="18">
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="15">
+        <v>26</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="16">
         <v>32</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="16">
         <v>98</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30">
+      <c r="E30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>2</v>
+      <c r="I30" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="15">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="16">
         <v>32</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="16">
         <v>98</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31">
+      <c r="E31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16">
         <v>0</v>
       </c>
-      <c r="I31" s="5">
-        <v>279</v>
+      <c r="I31" s="18">
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="16">
         <v>98</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" s="18">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="D33" s="16">
         <v>98</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33">
+      <c r="E33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16">
         <v>0</v>
       </c>
-      <c r="I33" s="5">
-        <v>334</v>
+      <c r="I33" s="16">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="16">
         <v>32</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="16">
         <v>98</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34">
-        <v>11</v>
-      </c>
-      <c r="I34">
-        <v>1000</v>
+      <c r="E34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="D35" s="2">
+      <c r="B35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="16">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16">
         <v>98</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35">
+      <c r="E35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16">
         <v>0</v>
       </c>
-      <c r="I35" s="5">
-        <v>55</v>
+      <c r="I35" s="16">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="16">
         <v>32</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="16">
         <v>98</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36">
+      <c r="E36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>98</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38">
-        <v>33</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39">
-        <v>29</v>
-      </c>
-      <c r="I39" s="5">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>32</v>
-      </c>
-      <c r="D40">
-        <v>98</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="I36" s="16">
         <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>98</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41">
-        <v>16</v>
-      </c>
-      <c r="I41" s="5">
-        <v>18100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36">
-    <sortState ref="A2:D36">
-      <sortCondition descending="1" ref="C1:C36"/>
+  <autoFilter ref="A1:I36">
+    <sortState ref="A2:I36">
+      <sortCondition descending="1" ref="H1:H36"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E14" r:id="rId12"/>
-    <hyperlink ref="E16" r:id="rId13"/>
-    <hyperlink ref="E17" r:id="rId14"/>
-    <hyperlink ref="E18" r:id="rId15"/>
-    <hyperlink ref="E19" r:id="rId16"/>
-    <hyperlink ref="E20" r:id="rId17"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E8" r:id="rId10"/>
+    <hyperlink ref="E17" r:id="rId11"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="E19" r:id="rId13"/>
+    <hyperlink ref="E20" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="E21" r:id="rId16"/>
+    <hyperlink ref="E6" r:id="rId17"/>
     <hyperlink ref="E22" r:id="rId18"/>
-    <hyperlink ref="E24" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId19"/>
     <hyperlink ref="E25" r:id="rId20"/>
     <hyperlink ref="E26" r:id="rId21"/>
     <hyperlink ref="E27" r:id="rId22"/>
     <hyperlink ref="E28" r:id="rId23"/>
-    <hyperlink ref="E30" r:id="rId24"/>
-    <hyperlink ref="E31" r:id="rId25"/>
-    <hyperlink ref="E32" r:id="rId26"/>
-    <hyperlink ref="E33" r:id="rId27"/>
-    <hyperlink ref="E34" r:id="rId28"/>
-    <hyperlink ref="E35" r:id="rId29"/>
-    <hyperlink ref="E36" r:id="rId30"/>
-    <hyperlink ref="E37" r:id="rId31"/>
-    <hyperlink ref="E38" r:id="rId32"/>
-    <hyperlink ref="E39" r:id="rId33"/>
-    <hyperlink ref="E40" r:id="rId34"/>
-    <hyperlink ref="E41" r:id="rId35"/>
+    <hyperlink ref="E29" r:id="rId24"/>
+    <hyperlink ref="E30" r:id="rId25"/>
+    <hyperlink ref="E31" r:id="rId26"/>
+    <hyperlink ref="E11" r:id="rId27"/>
+    <hyperlink ref="E32" r:id="rId28"/>
+    <hyperlink ref="E33" r:id="rId29"/>
+    <hyperlink ref="E34" r:id="rId30"/>
+    <hyperlink ref="E35" r:id="rId31"/>
+    <hyperlink ref="E3" r:id="rId32"/>
+    <hyperlink ref="E36" r:id="rId33"/>
+    <hyperlink ref="E9" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14764,1222 +14697,1228 @@
     <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="4">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="4">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>36</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="C16" s="4">
         <v>89</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D16" s="4">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="9">
-        <v>89</v>
-      </c>
-      <c r="D3" s="9">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G16" s="9">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="9">
-        <v>89</v>
-      </c>
-      <c r="D4" s="9">
-        <v>28</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="9">
-        <v>89</v>
-      </c>
-      <c r="D5" s="9">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="9">
-        <v>89</v>
-      </c>
-      <c r="D6" s="9">
-        <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="9">
-        <v>89</v>
-      </c>
-      <c r="D7" s="9">
-        <v>28</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="9">
-        <v>89</v>
-      </c>
-      <c r="D8" s="9">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="9">
-        <v>89</v>
-      </c>
-      <c r="D9" s="9">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="9">
-        <v>89</v>
-      </c>
-      <c r="D10" s="9">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I16" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="9">
-        <v>89</v>
-      </c>
-      <c r="D11" s="9">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>35</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="9">
-        <v>89</v>
-      </c>
-      <c r="D12" s="9">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>39</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="9">
-        <v>89</v>
-      </c>
-      <c r="D13" s="9">
-        <v>28</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>23</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>34</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="9">
-        <v>89</v>
-      </c>
-      <c r="D14" s="9">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="9">
-        <v>89</v>
-      </c>
-      <c r="D15" s="9">
-        <v>28</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9">
-        <v>28</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="4">
         <v>89</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>28</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="9">
         <v>18</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>160</v>
+      <c r="H17" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="4">
         <v>89</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>30</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="E18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="9">
         <v>18</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>160</v>
+      <c r="H18" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4">
         <v>89</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>28</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="9">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>160</v>
+      <c r="H19" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4">
         <v>89</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>28</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="9">
         <v>17</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>160</v>
+      <c r="H20" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="4">
         <v>13</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4">
         <v>89</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="11">
         <v>0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="9">
         <v>17</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>165</v>
+      <c r="H21" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="4">
         <v>89</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <v>28</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="9">
         <v>17</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>165</v>
+      <c r="H22" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="4">
         <v>30</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="4">
         <v>89</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>28</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="E23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="9">
         <v>17</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>165</v>
+      <c r="H23" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="4">
         <v>89</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="4">
         <v>28</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="9">
         <v>16</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>165</v>
+      <c r="H24" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="4">
         <v>38</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="4">
         <v>89</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>28</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="9">
         <v>16</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>165</v>
+      <c r="H25" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4">
         <v>89</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <v>29</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="9">
         <v>14</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" t="s">
         <v>165</v>
-      </c>
-      <c r="I26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4">
         <v>89</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="4">
         <v>28</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="16">
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="11">
         <v>0</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="9">
         <v>13</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>165</v>
+      <c r="H27" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="4">
         <v>32</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="4">
         <v>89</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="4">
         <v>28</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="16">
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="11">
         <v>0</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="9">
         <v>5</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>165</v>
+      <c r="H28" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
         <v>89</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="E29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>165</v>
+      <c r="H29" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>10</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="4">
         <v>89</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="4">
         <v>28</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="16">
+      <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="11">
         <v>0</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>165</v>
+      <c r="H30" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="4">
         <v>16</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4">
         <v>89</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="4">
         <v>28</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>176</v>
+      <c r="H31" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>19</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4">
         <v>89</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="4">
         <v>28</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="11">
         <v>0</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>176</v>
+      <c r="H32" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="4">
         <v>21</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4">
         <v>89</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="4">
         <v>28</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>176</v>
+      <c r="H33" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="4">
         <v>22</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4">
         <v>89</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="4">
         <v>28</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="E34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>176</v>
+      <c r="H34" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="4">
         <v>23</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="4">
         <v>89</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="4">
         <v>28</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="16">
+      <c r="E35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>176</v>
+      <c r="H35" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4">
         <v>89</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="4">
         <v>28</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="16">
+      <c r="E36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" t="s">
         <v>176</v>
-      </c>
-      <c r="I36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="4">
         <v>89</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="4">
         <v>28</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>176</v>
+      <c r="H37" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4">
         <v>89</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="4">
         <v>28</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="16">
+      <c r="E38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>176</v>
+      <c r="H38" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="4">
         <v>31</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="4">
         <v>89</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="4">
         <v>28</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="E39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="11">
         <v>0</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="9">
         <v>0</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>176</v>
+      <c r="H39" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="4">
         <v>89</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="4">
         <v>28</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="16">
+      <c r="E40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="11">
         <v>0</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>176</v>
+      <c r="H40" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="4">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="B41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="4">
         <v>89</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="4">
         <v>28</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="16">
+      <c r="E41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="11">
         <v>0</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>176</v>
+      <c r="H41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="4">
         <v>89</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="4">
         <v>29</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="16">
+      <c r="E42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>176</v>
+      <c r="H42" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -16041,7 +15980,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16053,63 +15992,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>96</v>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>95</v>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>94</v>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/F Web2.0.xlsx
+++ b/F Web2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expired Tumbr" sheetId="2" r:id="rId1"/>
@@ -13646,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14684,8 +14684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/F Web2.0.xlsx
+++ b/F Web2.0.xlsx
@@ -14685,7 +14685,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14788,6 +14788,9 @@
       </c>
       <c r="I3" t="s">
         <v>140</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
